--- a/Code/Results/Cases/Case_6_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_30/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.795138135020977</v>
+        <v>3.795138135021091</v>
       </c>
       <c r="C2">
-        <v>1.011886330674088</v>
+        <v>1.011886330674713</v>
       </c>
       <c r="D2">
-        <v>0.004546259599698566</v>
+        <v>0.004546259599812252</v>
       </c>
       <c r="E2">
-        <v>0.02625246572510775</v>
+        <v>0.026252465725074</v>
       </c>
       <c r="F2">
         <v>2.936668057108278</v>
       </c>
       <c r="G2">
-        <v>0.000807458177662718</v>
+        <v>0.0008074581776623741</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07522388755438669</v>
+        <v>0.07522388755444709</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0.8750395931975135</v>
       </c>
       <c r="N2">
-        <v>1.329685677463985</v>
+        <v>1.329685677463971</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.29370651208626</v>
+        <v>3.293706512086317</v>
       </c>
       <c r="C3">
-        <v>0.8741920710427848</v>
+        <v>0.8741920710428133</v>
       </c>
       <c r="D3">
-        <v>0.003933823527217051</v>
+        <v>0.003933823527225933</v>
       </c>
       <c r="E3">
-        <v>0.02539107562232168</v>
+        <v>0.02539107562229681</v>
       </c>
       <c r="F3">
-        <v>2.691075095537187</v>
+        <v>2.691075095537144</v>
       </c>
       <c r="G3">
-        <v>0.000817475495635286</v>
+        <v>0.0008174754954651998</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07202859084663871</v>
+        <v>0.07202859084671687</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7643712431167344</v>
+        <v>0.7643712431166989</v>
       </c>
       <c r="N3">
-        <v>1.360761552119584</v>
+        <v>1.360761552119527</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.992337518976456</v>
+        <v>2.992337518976512</v>
       </c>
       <c r="C4">
-        <v>0.7914293818722058</v>
+        <v>0.7914293818718932</v>
       </c>
       <c r="D4">
-        <v>0.003581288019395501</v>
+        <v>0.003581288019263162</v>
       </c>
       <c r="E4">
-        <v>0.02489229877451749</v>
+        <v>0.02489229877451127</v>
       </c>
       <c r="F4">
         <v>2.54692513560876</v>
       </c>
       <c r="G4">
-        <v>0.0008237757036528499</v>
+        <v>0.0008237757037079496</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07020132595998163</v>
+        <v>0.07020132596010953</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6979470266484995</v>
+        <v>0.6979470266485137</v>
       </c>
       <c r="N4">
         <v>1.381999721541078</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.870949007975696</v>
+        <v>2.870949007975582</v>
       </c>
       <c r="C5">
-        <v>0.7580888543196522</v>
+        <v>0.7580888543194817</v>
       </c>
       <c r="D5">
-        <v>0.00344250882588959</v>
+        <v>0.003442508825902912</v>
       </c>
       <c r="E5">
-        <v>0.02469619542203549</v>
+        <v>0.02469619542202395</v>
       </c>
       <c r="F5">
-        <v>2.489686252471401</v>
+        <v>2.489686252471373</v>
       </c>
       <c r="G5">
-        <v>0.0008263830319356069</v>
+        <v>0.0008263830318310239</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06948795223613402</v>
+        <v>0.06948795223615889</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6712146407175084</v>
+        <v>0.6712146407175013</v>
       </c>
       <c r="N5">
-        <v>1.391163219659546</v>
+        <v>1.391163219659433</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.850872486840387</v>
+        <v>2.850872486840274</v>
       </c>
       <c r="C6">
-        <v>0.752574289383233</v>
+        <v>0.7525742893828919</v>
       </c>
       <c r="D6">
-        <v>0.003419731706016726</v>
+        <v>0.003419731705879947</v>
       </c>
       <c r="E6">
-        <v>0.02466405300978192</v>
+        <v>0.02466405300980501</v>
       </c>
       <c r="F6">
-        <v>2.480267977802185</v>
+        <v>2.480267977802214</v>
       </c>
       <c r="G6">
-        <v>0.0008268184536999178</v>
+        <v>0.0008268184537499554</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06937131281830133</v>
+        <v>0.06937131281831554</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6667947289034188</v>
+        <v>0.6667947289034402</v>
       </c>
       <c r="N6">
-        <v>1.392714614688884</v>
+        <v>1.392714614688956</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.990694944665961</v>
+        <v>2.990694944665847</v>
       </c>
       <c r="C7">
-        <v>0.7909782550665341</v>
+        <v>0.7909782550665057</v>
       </c>
       <c r="D7">
-        <v>0.003579397899486914</v>
+        <v>0.003579397899613923</v>
       </c>
       <c r="E7">
-        <v>0.02488962562526975</v>
+        <v>0.0248896256252884</v>
       </c>
       <c r="F7">
-        <v>2.546147314893631</v>
+        <v>2.546147314893645</v>
       </c>
       <c r="G7">
-        <v>0.0008238107023466245</v>
+        <v>0.0008238107023520908</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07019158189067198</v>
+        <v>0.07019158189081054</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6975852037955477</v>
+        <v>0.6975852037955335</v>
       </c>
       <c r="N7">
-        <v>1.382121285914963</v>
+        <v>1.38212128591492</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.620756390790405</v>
+        <v>3.620756390790518</v>
       </c>
       <c r="C8">
-        <v>0.9640000504073782</v>
+        <v>0.9640000504074067</v>
       </c>
       <c r="D8">
-        <v>0.004329555347014846</v>
+        <v>0.004329555347017511</v>
       </c>
       <c r="E8">
-        <v>0.0259489399762316</v>
+        <v>0.02594893997623338</v>
       </c>
       <c r="F8">
         <v>2.850502376469763</v>
       </c>
       <c r="G8">
-        <v>0.0008108825902776046</v>
+        <v>0.0008108825903370357</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07409255059514663</v>
+        <v>0.07409255059526032</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8365340091745423</v>
+        <v>0.8365340091745495</v>
       </c>
       <c r="N8">
-        <v>1.339931503170632</v>
+        <v>1.339931503170646</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.918954921271904</v>
+        <v>4.918954921271961</v>
       </c>
       <c r="C9">
-        <v>1.320610661050182</v>
+        <v>1.320610661049898</v>
       </c>
       <c r="D9">
-        <v>0.006040854630693815</v>
+        <v>0.006040854630803949</v>
       </c>
       <c r="E9">
-        <v>0.0282867266132687</v>
+        <v>0.02828672661326692</v>
       </c>
       <c r="F9">
-        <v>3.508583467765561</v>
+        <v>3.508583467765533</v>
       </c>
       <c r="G9">
-        <v>0.0007865987830450925</v>
+        <v>0.000786598783101859</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08294311711373581</v>
+        <v>0.08294311711368607</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.123560827155345</v>
+        <v>1.123560827155359</v>
       </c>
       <c r="N9">
-        <v>1.276027996070084</v>
+        <v>1.276027996070042</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>5.928485923468429</v>
       </c>
       <c r="C10">
-        <v>1.598262265420601</v>
+        <v>1.598262265420487</v>
       </c>
       <c r="D10">
-        <v>0.007533433443441595</v>
+        <v>0.007533433443073889</v>
       </c>
       <c r="E10">
         <v>0.03019741091962658</v>
@@ -812,7 +812,7 @@
         <v>4.04301042124797</v>
       </c>
       <c r="G10">
-        <v>0.0007692208255850797</v>
+        <v>0.0007692208255997031</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09038830922521157</v>
+        <v>0.09038830922531815</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.404523548185864</v>
+        <v>6.40452354818575</v>
       </c>
       <c r="C11">
         <v>1.729334549434782</v>
       </c>
       <c r="D11">
-        <v>0.008288344907438017</v>
+        <v>0.00828834490757302</v>
       </c>
       <c r="E11">
-        <v>0.0311176642465476</v>
+        <v>0.0311176642465707</v>
       </c>
       <c r="F11">
-        <v>4.300818488278992</v>
+        <v>4.30081848827902</v>
       </c>
       <c r="G11">
-        <v>0.0007613661497983154</v>
+        <v>0.0007613661496114194</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09403588911878558</v>
+        <v>0.09403588911879268</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.452749136043792</v>
+        <v>1.45274913604382</v>
       </c>
       <c r="N11">
-        <v>1.232220118950124</v>
+        <v>1.232220118950053</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.587665259494884</v>
+        <v>6.587665259494997</v>
       </c>
       <c r="C12">
-        <v>1.779789607215946</v>
+        <v>1.77978960721623</v>
       </c>
       <c r="D12">
-        <v>0.008587699821211103</v>
+        <v>0.008587699821502426</v>
       </c>
       <c r="E12">
-        <v>0.03147438237000877</v>
+        <v>0.03147438237004785</v>
       </c>
       <c r="F12">
-        <v>4.400917072395742</v>
+        <v>4.400917072395686</v>
       </c>
       <c r="G12">
-        <v>0.0007583941806550312</v>
+        <v>0.0007583941806535383</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09546015868810542</v>
+        <v>0.09546015868819779</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>1.493367967911354</v>
       </c>
       <c r="N12">
-        <v>1.228649940797567</v>
+        <v>1.228649940797609</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.548086332481603</v>
+        <v>6.548086332481375</v>
       </c>
       <c r="C13">
-        <v>1.768884305465974</v>
+        <v>1.768884305465406</v>
       </c>
       <c r="D13">
-        <v>0.008522582300894754</v>
+        <v>0.008522582300972914</v>
       </c>
       <c r="E13">
-        <v>0.03139717460156533</v>
+        <v>0.03139717460156888</v>
       </c>
       <c r="F13">
         <v>4.379242750168572</v>
       </c>
       <c r="G13">
-        <v>0.0007590342251978019</v>
+        <v>0.0007590342250858881</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09515140658859167</v>
+        <v>0.09515140658849219</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.484589244801271</v>
+        <v>1.484589244801256</v>
       </c>
       <c r="N13">
-        <v>1.229389840958845</v>
+        <v>1.229389840958831</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.419530168954225</v>
+        <v>6.419530168954452</v>
       </c>
       <c r="C14">
-        <v>1.733468211992374</v>
+        <v>1.73346821199209</v>
       </c>
       <c r="D14">
-        <v>0.008312686242208045</v>
+        <v>0.00831268624204462</v>
       </c>
       <c r="E14">
-        <v>0.03114684093664088</v>
+        <v>0.03114684093659648</v>
       </c>
       <c r="F14">
-        <v>4.309001846385172</v>
+        <v>4.309001846385144</v>
       </c>
       <c r="G14">
-        <v>0.0007611216259797683</v>
+        <v>0.000761121626050798</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09415216792569225</v>
+        <v>0.09415216792555725</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.45607719303726</v>
+        <v>1.456077193037231</v>
       </c>
       <c r="N14">
-        <v>1.231913451811565</v>
+        <v>1.231913451811621</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.34117537180515</v>
+        <v>6.341175371805264</v>
       </c>
       <c r="C15">
-        <v>1.711886122903479</v>
+        <v>1.711886122903195</v>
       </c>
       <c r="D15">
-        <v>0.008185959819844157</v>
+        <v>0.00818595981986725</v>
       </c>
       <c r="E15">
-        <v>0.03099460609383087</v>
+        <v>0.030994606093806</v>
       </c>
       <c r="F15">
         <v>4.266310872154264</v>
       </c>
       <c r="G15">
-        <v>0.0007624003781268711</v>
+        <v>0.0007624003780017259</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09354588515122941</v>
+        <v>0.09354588515135021</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.438700749136615</v>
+        <v>1.438700749136601</v>
       </c>
       <c r="N15">
-        <v>1.23354273120745</v>
+        <v>1.233542731207493</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>5.897751535624479</v>
       </c>
       <c r="C16">
-        <v>1.589803387391214</v>
+        <v>1.589803387391385</v>
       </c>
       <c r="D16">
-        <v>0.007485834679151537</v>
+        <v>0.007485834679124892</v>
       </c>
       <c r="E16">
-        <v>0.03013837125670982</v>
+        <v>0.03013837125679331</v>
       </c>
       <c r="F16">
-        <v>4.026487178734641</v>
+        <v>4.026487178734698</v>
       </c>
       <c r="G16">
-        <v>0.0007697347680693859</v>
+        <v>0.0007697347680641006</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09015563029813478</v>
+        <v>0.09015563029807083</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.340389198676164</v>
+        <v>1.340389198676178</v>
       </c>
       <c r="N16">
-        <v>1.244099210354022</v>
+        <v>1.244099210354037</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.630333522036551</v>
+        <v>5.630333522036381</v>
       </c>
       <c r="C17">
-        <v>1.516220205473644</v>
+        <v>1.516220205473473</v>
       </c>
       <c r="D17">
-        <v>0.007077457494100159</v>
+        <v>0.00707745749409483</v>
       </c>
       <c r="E17">
-        <v>0.0296267742826295</v>
+        <v>0.02962677428260108</v>
       </c>
       <c r="F17">
         <v>3.883365029639094</v>
       </c>
       <c r="G17">
-        <v>0.0007742439232082625</v>
+        <v>0.0007742439231369547</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0881462632521135</v>
+        <v>0.08814626325209929</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.281122399834103</v>
+        <v>1.281122399834132</v>
       </c>
       <c r="N17">
-        <v>1.251602140607105</v>
+        <v>1.251602140607091</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.47807125878461</v>
+        <v>5.478071258784496</v>
       </c>
       <c r="C18">
-        <v>1.474336547370399</v>
+        <v>1.474336547370115</v>
       </c>
       <c r="D18">
-        <v>0.006849537252668014</v>
+        <v>0.006849537252791471</v>
       </c>
       <c r="E18">
-        <v>0.02933726362853761</v>
+        <v>0.02933726362856248</v>
       </c>
       <c r="F18">
-        <v>3.802403533833257</v>
+        <v>3.802403533833285</v>
       </c>
       <c r="G18">
-        <v>0.000776842567733448</v>
+        <v>0.000776842567730853</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08701469301147569</v>
+        <v>0.08701469301168174</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.24738551023232</v>
+        <v>1.247385510232348</v>
       </c>
       <c r="N18">
-        <v>1.25627203276602</v>
+        <v>1.256272032766006</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.426771098567826</v>
+        <v>5.426771098568054</v>
       </c>
       <c r="C19">
-        <v>1.46022715764849</v>
+        <v>1.46022715764866</v>
       </c>
       <c r="D19">
-        <v>0.006773493493981597</v>
+        <v>0.006773493493852811</v>
       </c>
       <c r="E19">
-        <v>0.02924003042945778</v>
+        <v>0.02924003042949863</v>
       </c>
       <c r="F19">
         <v>3.775214654426094</v>
       </c>
       <c r="G19">
-        <v>0.0007777234357420669</v>
+        <v>0.0007777234356754535</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08663555842120729</v>
+        <v>0.08663555842115755</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.236020341261664</v>
+        <v>1.236020341261693</v>
       </c>
       <c r="N19">
-        <v>1.257911992019118</v>
+        <v>1.257911992019132</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.658637145814964</v>
+        <v>5.658637145815078</v>
       </c>
       <c r="C20">
-        <v>1.524006868775587</v>
+        <v>1.524006868775757</v>
       </c>
       <c r="D20">
-        <v>0.007120191761073258</v>
+        <v>0.007120191761445405</v>
       </c>
       <c r="E20">
-        <v>0.02968073737667609</v>
+        <v>0.02968073737661214</v>
       </c>
       <c r="F20">
         <v>3.898457595796202</v>
       </c>
       <c r="G20">
-        <v>0.0007737634210764858</v>
+        <v>0.0007737634211343652</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08835762557747984</v>
+        <v>0.08835762557744431</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.287394351177525</v>
+        <v>1.287394351177511</v>
       </c>
       <c r="N20">
         <v>1.250766265315093</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.457208115256265</v>
+        <v>6.457208115256435</v>
       </c>
       <c r="C21">
-        <v>1.743847310534704</v>
+        <v>1.743847310534875</v>
       </c>
       <c r="D21">
-        <v>0.008373948841596146</v>
+        <v>0.008373948841359891</v>
       </c>
       <c r="E21">
-        <v>0.03122013860051176</v>
+        <v>0.03122013860047268</v>
       </c>
       <c r="F21">
         <v>4.329563054168204</v>
       </c>
       <c r="G21">
-        <v>0.0007605084824379429</v>
+        <v>0.0007605084824921067</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09444445294194281</v>
+        <v>0.09444445294200676</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.46443332620629</v>
+        <v>1.464433326206318</v>
       </c>
       <c r="N21">
-        <v>1.231154656947766</v>
+        <v>1.23115465694768</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         <v>1.892390009008921</v>
       </c>
       <c r="D22">
-        <v>0.009273535053134552</v>
+        <v>0.009273535053516468</v>
       </c>
       <c r="E22">
-        <v>0.03227476593681189</v>
+        <v>0.03227476593681544</v>
       </c>
       <c r="F22">
-        <v>4.625936638092554</v>
+        <v>4.625936638092526</v>
       </c>
       <c r="G22">
-        <v>0.0007518569158397964</v>
+        <v>0.0007518569158413507</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09867646769131966</v>
+        <v>0.09867646769130545</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.70677881327174</v>
+        <v>6.706778813271796</v>
       </c>
       <c r="C23">
         <v>1.812614111620803</v>
       </c>
       <c r="D23">
-        <v>0.008785087526785418</v>
+        <v>0.008785087526797852</v>
       </c>
       <c r="E23">
-        <v>0.03170711676449578</v>
+        <v>0.03170711676450999</v>
       </c>
       <c r="F23">
-        <v>4.466284161672888</v>
+        <v>4.46628416167286</v>
       </c>
       <c r="G23">
-        <v>0.0007564751991654984</v>
+        <v>0.0007564751992416072</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09639246799673629</v>
+        <v>0.09639246799656576</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.645836501749841</v>
+        <v>5.645836501749898</v>
       </c>
       <c r="C24">
-        <v>1.520485219092393</v>
+        <v>1.520485219092961</v>
       </c>
       <c r="D24">
-        <v>0.007100850414949456</v>
+        <v>0.007100850414740734</v>
       </c>
       <c r="E24">
-        <v>0.02965632635804916</v>
+        <v>0.02965632635805449</v>
       </c>
       <c r="F24">
         <v>3.891630157351585</v>
       </c>
       <c r="G24">
-        <v>0.0007739806361962985</v>
+        <v>0.0007739806362556667</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08826199543673852</v>
+        <v>0.0882619954368451</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.284557761721643</v>
+        <v>1.284557761721615</v>
       </c>
       <c r="N24">
-        <v>1.251143059976968</v>
+        <v>1.251143059976982</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.559379239382451</v>
+        <v>4.559379239382508</v>
       </c>
       <c r="C25">
         <v>1.221800273560518</v>
       </c>
       <c r="D25">
-        <v>0.005543893658405352</v>
+        <v>0.005543893658282784</v>
       </c>
       <c r="E25">
-        <v>0.02762313502447711</v>
+        <v>0.02762313502453395</v>
       </c>
       <c r="F25">
-        <v>3.322704202374268</v>
+        <v>3.32270420237424</v>
       </c>
       <c r="G25">
-        <v>0.00079307179079082</v>
+        <v>0.0007930717907896018</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08040016714326725</v>
+        <v>0.08040016714316778</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.043984137198841</v>
+        <v>1.043984137198834</v>
       </c>
       <c r="N25">
-        <v>1.291040044713853</v>
+        <v>1.291040044713739</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.795138135021091</v>
+        <v>2.226288488250361</v>
       </c>
       <c r="C2">
-        <v>1.011886330674713</v>
+        <v>0.7214251749356322</v>
       </c>
       <c r="D2">
-        <v>0.004546259599812252</v>
+        <v>0.06766252998878741</v>
       </c>
       <c r="E2">
-        <v>0.026252465725074</v>
+        <v>0.06267325425238113</v>
       </c>
       <c r="F2">
-        <v>2.936668057108278</v>
+        <v>1.13708001775764</v>
       </c>
       <c r="G2">
-        <v>0.0008074581776623741</v>
+        <v>0.8774201349817901</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001058198361135076</v>
       </c>
       <c r="J2">
-        <v>0.07522388755444709</v>
+        <v>0.5747690675554935</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4388600253152788</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07436550251548013</v>
       </c>
       <c r="M2">
-        <v>0.8750395931975135</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.329685677463971</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6590848649828871</v>
+      </c>
+      <c r="P2">
+        <v>0.7637566602546286</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.293706512086317</v>
+        <v>1.935172453874969</v>
       </c>
       <c r="C3">
-        <v>0.8741920710428133</v>
+        <v>0.6247529389517297</v>
       </c>
       <c r="D3">
-        <v>0.003933823527225933</v>
+        <v>0.06248751289353294</v>
       </c>
       <c r="E3">
-        <v>0.02539107562229681</v>
+        <v>0.05943537278682953</v>
       </c>
       <c r="F3">
-        <v>2.691075095537144</v>
+        <v>1.060742877463483</v>
       </c>
       <c r="G3">
-        <v>0.0008174754954651998</v>
+        <v>0.8089872015315365</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0004568291202033947</v>
       </c>
       <c r="J3">
-        <v>0.07202859084671687</v>
+        <v>0.5491243231437579</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4265288688305162</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0718459380145795</v>
       </c>
       <c r="M3">
-        <v>0.7643712431166989</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.360761552119527</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.575440979694811</v>
+      </c>
+      <c r="P3">
+        <v>0.7985645769425531</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.992337518976512</v>
+        <v>1.756304574935257</v>
       </c>
       <c r="C4">
-        <v>0.7914293818718932</v>
+        <v>0.566090754374045</v>
       </c>
       <c r="D4">
-        <v>0.003581288019263162</v>
+        <v>0.05940599601458985</v>
       </c>
       <c r="E4">
-        <v>0.02489229877451127</v>
+        <v>0.05754530212318976</v>
       </c>
       <c r="F4">
-        <v>2.54692513560876</v>
+        <v>1.015298654696977</v>
       </c>
       <c r="G4">
-        <v>0.0008237757037079496</v>
+        <v>0.7680829411542618</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004541845226455621</v>
       </c>
       <c r="J4">
-        <v>0.07020132596010953</v>
+        <v>0.534055700838195</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4194384820699781</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07042521031875282</v>
       </c>
       <c r="M4">
-        <v>0.6979470266485137</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.381999721541078</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5244051826571692</v>
+      </c>
+      <c r="P4">
+        <v>0.8208105278757731</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.870949007975582</v>
+        <v>1.682044432014493</v>
       </c>
       <c r="C5">
-        <v>0.7580888543194817</v>
+        <v>0.5429915634979636</v>
       </c>
       <c r="D5">
-        <v>0.003442508825902912</v>
+        <v>0.05824892854823105</v>
       </c>
       <c r="E5">
-        <v>0.02469619542202395</v>
+        <v>0.05681899873395579</v>
       </c>
       <c r="F5">
-        <v>2.489686252471373</v>
+        <v>0.996254499063653</v>
       </c>
       <c r="G5">
-        <v>0.0008263830318310239</v>
+        <v>0.7507740766631912</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0006065294493118323</v>
       </c>
       <c r="J5">
-        <v>0.06948795223615889</v>
+        <v>0.5276212332037602</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4161079841728608</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.06986564264944661</v>
       </c>
       <c r="M5">
-        <v>0.6712146407175013</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.391163219659433</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5036512369175483</v>
+      </c>
+      <c r="P5">
+        <v>0.830139350024437</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.850872486840274</v>
+        <v>1.668096400053116</v>
       </c>
       <c r="C6">
-        <v>0.7525742893828919</v>
+        <v>0.5399626180534085</v>
       </c>
       <c r="D6">
-        <v>0.003419731705879947</v>
+        <v>0.05815080542881645</v>
       </c>
       <c r="E6">
-        <v>0.02466405300980501</v>
+        <v>0.05672481983353883</v>
       </c>
       <c r="F6">
-        <v>2.480267977802214</v>
+        <v>0.9920614836452728</v>
       </c>
       <c r="G6">
-        <v>0.0008268184537499554</v>
+        <v>0.7468179060425513</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0007262221639949828</v>
       </c>
       <c r="J6">
-        <v>0.06937131281831554</v>
+        <v>0.5260073210828011</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4148841958910658</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.06976135646559811</v>
       </c>
       <c r="M6">
-        <v>0.6667947289034402</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.392714614688956</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5001762090110162</v>
+      </c>
+      <c r="P6">
+        <v>0.8317650436160839</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.990694944665847</v>
+        <v>1.75087799019272</v>
       </c>
       <c r="C7">
-        <v>0.7909782550665057</v>
+        <v>0.5679622789514269</v>
       </c>
       <c r="D7">
-        <v>0.003579397899613923</v>
+        <v>0.05964333485896134</v>
       </c>
       <c r="E7">
-        <v>0.0248896256252884</v>
+        <v>0.05760381438566498</v>
       </c>
       <c r="F7">
-        <v>2.546147314893645</v>
+        <v>1.01216828534929</v>
       </c>
       <c r="G7">
-        <v>0.0008238107023520908</v>
+        <v>0.7648472328322384</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.000682569612814099</v>
       </c>
       <c r="J7">
-        <v>0.07019158189081054</v>
+        <v>0.5324515302359742</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4175412491338228</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.07038170099706775</v>
       </c>
       <c r="M7">
-        <v>0.6975852037955335</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.38212128591492</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5240340661449068</v>
+      </c>
+      <c r="P7">
+        <v>0.8211257883763441</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.620756390790518</v>
+        <v>2.119990269928735</v>
       </c>
       <c r="C8">
-        <v>0.9640000504074067</v>
+        <v>0.690848648039065</v>
       </c>
       <c r="D8">
-        <v>0.004329555347017511</v>
+        <v>0.06619325511172747</v>
       </c>
       <c r="E8">
-        <v>0.02594893997623338</v>
+        <v>0.06162645673082423</v>
       </c>
       <c r="F8">
-        <v>2.850502376469763</v>
+        <v>1.106630079113756</v>
       </c>
       <c r="G8">
-        <v>0.0008108825903370357</v>
+        <v>0.849587039698946</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001032900460302244</v>
       </c>
       <c r="J8">
-        <v>0.07409255059526032</v>
+        <v>0.5637674709954155</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4320491692869695</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07342231574784819</v>
       </c>
       <c r="M8">
-        <v>0.8365340091745495</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.339931503170646</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6300444190624859</v>
+      </c>
+      <c r="P8">
+        <v>0.775897385490385</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.918954921271961</v>
+        <v>2.851971858969705</v>
       </c>
       <c r="C9">
-        <v>1.320610661049898</v>
+        <v>0.9343511509020743</v>
       </c>
       <c r="D9">
-        <v>0.006040854630803949</v>
+        <v>0.07939499838806086</v>
       </c>
       <c r="E9">
-        <v>0.02828672661326692</v>
+        <v>0.07022603697427598</v>
       </c>
       <c r="F9">
-        <v>3.508583467765533</v>
+        <v>1.309602602668988</v>
       </c>
       <c r="G9">
-        <v>0.000786598783101859</v>
+        <v>1.031132527498016</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004584987138278152</v>
       </c>
       <c r="J9">
-        <v>0.08294311711368607</v>
+        <v>0.6337874575136908</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4680110695238611</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08052893304294884</v>
       </c>
       <c r="M9">
-        <v>1.123560827155359</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.276027996070042</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8411791994792495</v>
+      </c>
+      <c r="P9">
+        <v>0.6939808899722202</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.928485923468429</v>
+        <v>3.389172003800013</v>
       </c>
       <c r="C10">
-        <v>1.598262265420487</v>
+        <v>1.119750094741789</v>
       </c>
       <c r="D10">
-        <v>0.007533433443073889</v>
+        <v>0.0897906684270211</v>
       </c>
       <c r="E10">
-        <v>0.03019741091962658</v>
+        <v>0.07717057536018856</v>
       </c>
       <c r="F10">
-        <v>4.04301042124797</v>
+        <v>1.466805016495883</v>
       </c>
       <c r="G10">
-        <v>0.0007692208255997031</v>
+        <v>1.170766221112842</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.009655781384960704</v>
       </c>
       <c r="J10">
-        <v>0.09038830922531815</v>
+        <v>0.6888301640195778</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4966265408571431</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08650759090554061</v>
       </c>
       <c r="M10">
-        <v>1.347201878007112</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.243292717965659</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.9989123091452328</v>
+      </c>
+      <c r="P10">
+        <v>0.638861712591364</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.40452354818575</v>
+        <v>3.626696099562707</v>
       </c>
       <c r="C11">
-        <v>1.729334549434782</v>
+        <v>1.209302063777272</v>
       </c>
       <c r="D11">
-        <v>0.00828834490757302</v>
+        <v>0.09508212072329769</v>
       </c>
       <c r="E11">
-        <v>0.0311176642465707</v>
+        <v>0.08059164167779898</v>
       </c>
       <c r="F11">
-        <v>4.30081848827902</v>
+        <v>1.536049481186666</v>
       </c>
       <c r="G11">
-        <v>0.0007613661496114194</v>
+        <v>1.231368988072887</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01287932245207202</v>
       </c>
       <c r="J11">
-        <v>0.09403588911879268</v>
+        <v>0.7124922879420694</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5074107025060428</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08936558763236491</v>
       </c>
       <c r="M11">
-        <v>1.45274913604382</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.232220118950053</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.071253651495923</v>
+      </c>
+      <c r="P11">
+        <v>0.6156309411838734</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.587665259494997</v>
+        <v>3.720817968838105</v>
       </c>
       <c r="C12">
-        <v>1.77978960721623</v>
+        <v>1.241508772679879</v>
       </c>
       <c r="D12">
-        <v>0.008587699821502426</v>
+        <v>0.09688467095793385</v>
       </c>
       <c r="E12">
-        <v>0.03147438237004785</v>
+        <v>0.08185025502674037</v>
       </c>
       <c r="F12">
-        <v>4.400917072395686</v>
+        <v>1.565212302485449</v>
       </c>
       <c r="G12">
-        <v>0.0007583941806535383</v>
+        <v>1.257314247623952</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01403387101271125</v>
       </c>
       <c r="J12">
-        <v>0.09546015868819779</v>
+        <v>0.7229645580374893</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5132412317666635</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09050952893341702</v>
       </c>
       <c r="M12">
-        <v>1.493367967911354</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.228649940797609</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.098871653471782</v>
+      </c>
+      <c r="P12">
+        <v>0.6066790592622766</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.548086332481375</v>
+        <v>3.701354689697382</v>
       </c>
       <c r="C13">
-        <v>1.768884305465406</v>
+        <v>1.234166226536956</v>
       </c>
       <c r="D13">
-        <v>0.008522582300972914</v>
+        <v>0.09645043362638006</v>
       </c>
       <c r="E13">
-        <v>0.03139717460156888</v>
+        <v>0.08156602560009674</v>
       </c>
       <c r="F13">
-        <v>4.379242750168572</v>
+        <v>1.559424689280249</v>
       </c>
       <c r="G13">
-        <v>0.0007590342250858881</v>
+        <v>1.252246560433775</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01374573187397221</v>
       </c>
       <c r="J13">
-        <v>0.09515140658849219</v>
+        <v>0.7209692167407411</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5123050183518671</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09026797415842225</v>
       </c>
       <c r="M13">
-        <v>1.484589244801256</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.229389840958831</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.092937381339503</v>
+      </c>
+      <c r="P13">
+        <v>0.6085279253523055</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.419530168954452</v>
+        <v>3.634782024362607</v>
       </c>
       <c r="C14">
-        <v>1.73346821199209</v>
+        <v>1.211778964666848</v>
       </c>
       <c r="D14">
-        <v>0.00831268624204462</v>
+        <v>0.09521084356953224</v>
       </c>
       <c r="E14">
-        <v>0.03114684093659648</v>
+        <v>0.08068957184451975</v>
       </c>
       <c r="F14">
-        <v>4.309001846385144</v>
+        <v>1.538657642661079</v>
       </c>
       <c r="G14">
-        <v>0.000761121626050798</v>
+        <v>1.233723939362022</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01295705736036723</v>
       </c>
       <c r="J14">
-        <v>0.09415216792555725</v>
+        <v>0.7134640699497936</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5080258946102489</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08946171217588272</v>
       </c>
       <c r="M14">
-        <v>1.456077193037231</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.231913451811621</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.07353146797545</v>
+      </c>
+      <c r="P14">
+        <v>0.6148609326115988</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.341175371805264</v>
+        <v>3.592424812109073</v>
       </c>
       <c r="C15">
-        <v>1.711886122903195</v>
+        <v>1.198876187008182</v>
       </c>
       <c r="D15">
-        <v>0.00818595981986725</v>
+        <v>0.09454313119462654</v>
       </c>
       <c r="E15">
-        <v>0.030994606093806</v>
+        <v>0.08017962643261711</v>
       </c>
       <c r="F15">
-        <v>4.266310872154264</v>
+        <v>1.524984812317328</v>
       </c>
       <c r="G15">
-        <v>0.0007624003780017259</v>
+        <v>1.221370329298765</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01256073550481762</v>
       </c>
       <c r="J15">
-        <v>0.09354588515135021</v>
+        <v>0.7083631795103145</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5047821190313755</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08895968726361758</v>
       </c>
       <c r="M15">
-        <v>1.438700749136601</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.233542731207493</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.06162357970959</v>
+      </c>
+      <c r="P15">
+        <v>0.6189014022983841</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.897751535624479</v>
+        <v>3.360229886524678</v>
       </c>
       <c r="C16">
-        <v>1.589803387391385</v>
+        <v>1.120456680075051</v>
       </c>
       <c r="D16">
-        <v>0.007485834679124892</v>
+        <v>0.09019320018264665</v>
       </c>
       <c r="E16">
-        <v>0.03013837125679331</v>
+        <v>0.07715071204685131</v>
       </c>
       <c r="F16">
-        <v>4.026487178734698</v>
+        <v>1.453863530079488</v>
       </c>
       <c r="G16">
-        <v>0.0007697347680641006</v>
+        <v>1.157983629790266</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01003423302730155</v>
       </c>
       <c r="J16">
-        <v>0.09015563029807083</v>
+        <v>0.6828627094858746</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4905426165477635</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08622175845714963</v>
       </c>
       <c r="M16">
-        <v>1.340389198676178</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.244099210354037</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.9938831789458149</v>
+      </c>
+      <c r="P16">
+        <v>0.6415132362920559</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.630333522036381</v>
+        <v>3.218079857159239</v>
       </c>
       <c r="C17">
-        <v>1.516220205473473</v>
+        <v>1.072729498902788</v>
       </c>
       <c r="D17">
-        <v>0.00707745749409483</v>
+        <v>0.08755874263695773</v>
       </c>
       <c r="E17">
-        <v>0.02962677428260108</v>
+        <v>0.07533103129928165</v>
       </c>
       <c r="F17">
-        <v>3.883365029639094</v>
+        <v>1.410946790941281</v>
       </c>
       <c r="G17">
-        <v>0.0007742439231369547</v>
+        <v>1.119703310844642</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.008655989723369117</v>
       </c>
       <c r="J17">
-        <v>0.08814626325209929</v>
+        <v>0.6675417039402589</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4820492771975751</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08459462033366805</v>
       </c>
       <c r="M17">
-        <v>1.281122399834132</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.251602140607091</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.9525387933930674</v>
+      </c>
+      <c r="P17">
+        <v>0.6556804273964545</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.478071258784496</v>
+        <v>3.140460453372555</v>
       </c>
       <c r="C18">
-        <v>1.474336547370115</v>
+        <v>1.043433415644728</v>
       </c>
       <c r="D18">
-        <v>0.006849537252791471</v>
+        <v>0.08582948551475056</v>
       </c>
       <c r="E18">
-        <v>0.02933726362856248</v>
+        <v>0.07423720664983691</v>
       </c>
       <c r="F18">
-        <v>3.802403533833285</v>
+        <v>1.38906742715578</v>
       </c>
       <c r="G18">
-        <v>0.000776842567730853</v>
+        <v>1.10056999401283</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00770749242989055</v>
       </c>
       <c r="J18">
-        <v>0.08701469301168174</v>
+        <v>0.6601844119808504</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4788759902078397</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08370846113448493</v>
       </c>
       <c r="M18">
-        <v>1.247385510232348</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.256272032766006</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.9289254332460857</v>
+      </c>
+      <c r="P18">
+        <v>0.6636053671547657</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.426771098568054</v>
+        <v>3.111073616547742</v>
       </c>
       <c r="C19">
-        <v>1.46022715764866</v>
+        <v>1.035059091351457</v>
       </c>
       <c r="D19">
-        <v>0.006773493493852811</v>
+        <v>0.08542033584245701</v>
       </c>
       <c r="E19">
-        <v>0.02924003042949863</v>
+        <v>0.07391600431720491</v>
       </c>
       <c r="F19">
-        <v>3.775214654426094</v>
+        <v>1.379728801916784</v>
       </c>
       <c r="G19">
-        <v>0.0007777234356754535</v>
+        <v>1.092063358432142</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.007559338165177287</v>
       </c>
       <c r="J19">
-        <v>0.08663555842115755</v>
+        <v>0.656676911436719</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4765601873411853</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08338742599043059</v>
       </c>
       <c r="M19">
-        <v>1.236020341261693</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.257911992019132</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9208695105789033</v>
+      </c>
+      <c r="P19">
+        <v>0.6665603747989621</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.658637145815078</v>
+        <v>3.233519823584857</v>
       </c>
       <c r="C20">
-        <v>1.524006868775757</v>
+        <v>1.077641236401121</v>
       </c>
       <c r="D20">
-        <v>0.007120191761445405</v>
+        <v>0.08782016913778534</v>
       </c>
       <c r="E20">
-        <v>0.02968073737661214</v>
+        <v>0.07551855009094766</v>
       </c>
       <c r="F20">
-        <v>3.898457595796202</v>
+        <v>1.415690032917951</v>
       </c>
       <c r="G20">
-        <v>0.0007737634211343652</v>
+        <v>1.123966307760213</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.008779320116095057</v>
       </c>
       <c r="J20">
-        <v>0.08835762557744431</v>
+        <v>0.6692661905170212</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4830722410662389</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08476835285412676</v>
       </c>
       <c r="M20">
-        <v>1.287394351177511</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.250766265315093</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9569398025579332</v>
+      </c>
+      <c r="P20">
+        <v>0.6541349263851188</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.457208115256435</v>
+        <v>3.649766406098763</v>
       </c>
       <c r="C21">
-        <v>1.743847310534875</v>
+        <v>1.220561749245007</v>
       </c>
       <c r="D21">
-        <v>0.008373948841359891</v>
+        <v>0.09582705605734532</v>
       </c>
       <c r="E21">
-        <v>0.03122013860047268</v>
+        <v>0.08101427527613581</v>
       </c>
       <c r="F21">
-        <v>4.329563054168204</v>
+        <v>1.541877865245283</v>
       </c>
       <c r="G21">
-        <v>0.0007605084824921067</v>
+        <v>1.236152460260769</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01339521935639443</v>
       </c>
       <c r="J21">
-        <v>0.09444445294200676</v>
+        <v>0.7141594833512386</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5074558249412959</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08966277096650543</v>
       </c>
       <c r="M21">
-        <v>1.464433326206318</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.23115465694768</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.079117497659468</v>
+      </c>
+      <c r="P21">
+        <v>0.6133947753507165</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.996158048938241</v>
+        <v>3.928721526600725</v>
       </c>
       <c r="C22">
-        <v>1.892390009008921</v>
+        <v>1.312525114864684</v>
       </c>
       <c r="D22">
-        <v>0.009273535053516468</v>
+        <v>0.1008563925942809</v>
       </c>
       <c r="E22">
-        <v>0.03227476593681544</v>
+        <v>0.08465284736914569</v>
       </c>
       <c r="F22">
-        <v>4.625936638092526</v>
+        <v>1.630499515502791</v>
       </c>
       <c r="G22">
-        <v>0.0007518569158413507</v>
+        <v>1.315423831337</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01673959946479098</v>
       </c>
       <c r="J22">
-        <v>0.09867646769130545</v>
+        <v>0.746537856354081</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5265532715574253</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09308808221125275</v>
       </c>
       <c r="M22">
-        <v>1.583989388049744</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.222010785002951</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.159871988055087</v>
+      </c>
+      <c r="P22">
+        <v>0.5872679899480637</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.706778813271796</v>
+        <v>3.785235457024385</v>
       </c>
       <c r="C23">
-        <v>1.812614111620803</v>
+        <v>1.260637956560061</v>
       </c>
       <c r="D23">
-        <v>0.008785087526797852</v>
+        <v>0.09785647160028788</v>
       </c>
       <c r="E23">
-        <v>0.03170711676450999</v>
+        <v>0.08261625175872922</v>
       </c>
       <c r="F23">
-        <v>4.46628416167286</v>
+        <v>1.586417281189725</v>
       </c>
       <c r="G23">
-        <v>0.0007564751992416072</v>
+        <v>1.276529840594463</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01466349029891489</v>
       </c>
       <c r="J23">
-        <v>0.09639246799656576</v>
+        <v>0.7309621647920608</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5184794458593629</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09128444794908575</v>
       </c>
       <c r="M23">
-        <v>1.519789469679196</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.226527289857827</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.116829902862285</v>
+      </c>
+      <c r="P23">
+        <v>0.6006337481429043</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.645836501749898</v>
+        <v>3.235120994330032</v>
       </c>
       <c r="C24">
-        <v>1.520485219092961</v>
+        <v>1.071240418358514</v>
       </c>
       <c r="D24">
-        <v>0.007100850414740734</v>
+        <v>0.08722397743152754</v>
       </c>
       <c r="E24">
-        <v>0.02965632635805449</v>
+        <v>0.0753051709748469</v>
       </c>
       <c r="F24">
-        <v>3.891630157351585</v>
+        <v>1.418962601460677</v>
       </c>
       <c r="G24">
-        <v>0.0007739806362556667</v>
+        <v>1.127708093273199</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.008309465932280879</v>
       </c>
       <c r="J24">
-        <v>0.0882619954368451</v>
+        <v>0.6713301481032943</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4860600960834844</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.08475588327197414</v>
       </c>
       <c r="M24">
-        <v>1.284557761721615</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.251143059976982</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.955151133360701</v>
+      </c>
+      <c r="P24">
+        <v>0.6541335486080939</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.559379239382508</v>
+        <v>2.645543464899674</v>
       </c>
       <c r="C25">
-        <v>1.221800273560518</v>
+        <v>0.8716660563219421</v>
       </c>
       <c r="D25">
-        <v>0.005543893658282784</v>
+        <v>0.07619064778573659</v>
       </c>
       <c r="E25">
-        <v>0.02762313502453395</v>
+        <v>0.06792644688614402</v>
       </c>
       <c r="F25">
-        <v>3.32270420237424</v>
+        <v>1.247922080077657</v>
       </c>
       <c r="G25">
-        <v>0.0007930717907896018</v>
+        <v>0.9753008198433122</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003600692312724973</v>
       </c>
       <c r="J25">
-        <v>0.08040016714316778</v>
+        <v>0.6113820934607475</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4544237944715945</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.07841492683270701</v>
       </c>
       <c r="M25">
-        <v>1.043984137198834</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.291040044713739</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.7834694460249239</v>
+      </c>
+      <c r="P25">
+        <v>0.7158933525424089</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.226288488250361</v>
+        <v>2.104707944727352</v>
       </c>
       <c r="C2">
-        <v>0.7214251749356322</v>
+        <v>0.7792960578004511</v>
       </c>
       <c r="D2">
-        <v>0.06766252998878741</v>
+        <v>0.0753859256104974</v>
       </c>
       <c r="E2">
-        <v>0.06267325425238113</v>
+        <v>0.06471890718431084</v>
       </c>
       <c r="F2">
-        <v>1.13708001775764</v>
+        <v>1.053502871097649</v>
       </c>
       <c r="G2">
-        <v>0.8774201349817901</v>
+        <v>0.7690289840620608</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001058198361135076</v>
+        <v>0.001287111505398286</v>
       </c>
       <c r="J2">
-        <v>0.5747690675554935</v>
+        <v>0.5718187006335143</v>
       </c>
       <c r="K2">
-        <v>0.4388600253152788</v>
+        <v>0.3813248965495681</v>
       </c>
       <c r="L2">
-        <v>0.07436550251548013</v>
+        <v>0.1971173221683458</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1005902152785971</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.07324383129645895</v>
       </c>
       <c r="O2">
-        <v>0.6590848649828871</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7637566602546286</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6568555916497942</v>
+      </c>
+      <c r="R2">
+        <v>0.7637490118567776</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.935172453874969</v>
+        <v>1.83696053901815</v>
       </c>
       <c r="C3">
-        <v>0.6247529389517297</v>
+        <v>0.6718555156076036</v>
       </c>
       <c r="D3">
-        <v>0.06248751289353294</v>
+        <v>0.06918094187201262</v>
       </c>
       <c r="E3">
-        <v>0.05943537278682953</v>
+        <v>0.06126760941355869</v>
       </c>
       <c r="F3">
-        <v>1.060742877463483</v>
+        <v>0.9882975748531635</v>
       </c>
       <c r="G3">
-        <v>0.8089872015315365</v>
+        <v>0.7138917952813983</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0004568291202033947</v>
+        <v>0.0006362823460044353</v>
       </c>
       <c r="J3">
-        <v>0.5491243231437579</v>
+        <v>0.5474080624020985</v>
       </c>
       <c r="K3">
-        <v>0.4265288688305162</v>
+        <v>0.3748524652532303</v>
       </c>
       <c r="L3">
-        <v>0.0718459380145795</v>
+        <v>0.2000663678311696</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09341064266770971</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.07090842621818894</v>
       </c>
       <c r="O3">
-        <v>0.575440979694811</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7985645769425531</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5738176209287005</v>
+      </c>
+      <c r="R3">
+        <v>0.7913219073755293</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.756304574935257</v>
+        <v>1.671922826084312</v>
       </c>
       <c r="C4">
-        <v>0.566090754374045</v>
+        <v>0.606713504473845</v>
       </c>
       <c r="D4">
-        <v>0.05940599601458985</v>
+        <v>0.06549730564147183</v>
       </c>
       <c r="E4">
-        <v>0.05754530212318976</v>
+        <v>0.05925644463709467</v>
       </c>
       <c r="F4">
-        <v>1.015298654696977</v>
+        <v>0.9493047050840318</v>
       </c>
       <c r="G4">
-        <v>0.7680829411542618</v>
+        <v>0.6810348088435632</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0004541845226455621</v>
+        <v>0.0005169371525841626</v>
       </c>
       <c r="J4">
-        <v>0.534055700838195</v>
+        <v>0.5326036361079076</v>
       </c>
       <c r="K4">
-        <v>0.4194384820699781</v>
+        <v>0.3711569973840803</v>
       </c>
       <c r="L4">
-        <v>0.07042521031875282</v>
+        <v>0.2018418483713802</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.08977442021826931</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0695989061156439</v>
       </c>
       <c r="O4">
-        <v>0.5244051826571692</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8208105278757731</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5230751488021426</v>
+      </c>
+      <c r="R4">
+        <v>0.8091540327330939</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.682044432014493</v>
+        <v>1.603240987694676</v>
       </c>
       <c r="C5">
-        <v>0.5429915634979636</v>
+        <v>0.5810201421454337</v>
       </c>
       <c r="D5">
-        <v>0.05824892854823105</v>
+        <v>0.06410482064023881</v>
       </c>
       <c r="E5">
-        <v>0.05681899873395579</v>
+        <v>0.05848326378141167</v>
       </c>
       <c r="F5">
-        <v>0.996254499063653</v>
+        <v>0.9328495950109073</v>
       </c>
       <c r="G5">
-        <v>0.7507740766631912</v>
+        <v>0.6670481758669382</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0006065294493118323</v>
+        <v>0.0006135214220481799</v>
       </c>
       <c r="J5">
-        <v>0.5276212332037602</v>
+        <v>0.5261754644726437</v>
       </c>
       <c r="K5">
-        <v>0.4161079841728608</v>
+        <v>0.3692204332915558</v>
       </c>
       <c r="L5">
-        <v>0.06986564264944661</v>
+        <v>0.202322441462826</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0883418493063779</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.06908468202163931</v>
       </c>
       <c r="O5">
-        <v>0.5036512369175483</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.830139350024437</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5024236338449697</v>
+      </c>
+      <c r="R5">
+        <v>0.8167595382222927</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.668096400053116</v>
+        <v>1.590291234664051</v>
       </c>
       <c r="C6">
-        <v>0.5399626180534085</v>
+        <v>0.5775781125386459</v>
       </c>
       <c r="D6">
-        <v>0.05815080542881645</v>
+        <v>0.06397115620939786</v>
       </c>
       <c r="E6">
-        <v>0.05672481983353883</v>
+        <v>0.05838145983581988</v>
       </c>
       <c r="F6">
-        <v>0.9920614836452728</v>
+        <v>0.9291436515084257</v>
       </c>
       <c r="G6">
-        <v>0.7468179060425513</v>
+        <v>0.6637286189651945</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0007262221639949828</v>
+        <v>0.000738938818849455</v>
       </c>
       <c r="J6">
-        <v>0.5260073210828011</v>
+        <v>0.5245762377480219</v>
       </c>
       <c r="K6">
-        <v>0.4148841958910658</v>
+        <v>0.3682975020178887</v>
       </c>
       <c r="L6">
-        <v>0.06976135646559811</v>
+        <v>0.2021169087430259</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08794269350675421</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06898840662224259</v>
       </c>
       <c r="O6">
-        <v>0.5001762090110162</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8317650436160839</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4989655149617391</v>
+      </c>
+      <c r="R6">
+        <v>0.818182828322584</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.75087799019272</v>
+        <v>1.665110266570849</v>
       </c>
       <c r="C7">
-        <v>0.5679622789514269</v>
+        <v>0.6072514922006462</v>
       </c>
       <c r="D7">
-        <v>0.05964333485896134</v>
+        <v>0.06593759697428681</v>
       </c>
       <c r="E7">
-        <v>0.05760381438566498</v>
+        <v>0.05938179193937998</v>
       </c>
       <c r="F7">
-        <v>1.01216828534929</v>
+        <v>0.9445749125117544</v>
       </c>
       <c r="G7">
-        <v>0.7648472328322384</v>
+        <v>0.6818381105771323</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.000682569612814099</v>
+        <v>0.0007866335483646125</v>
       </c>
       <c r="J7">
-        <v>0.5324515302359742</v>
+        <v>0.5241436911764055</v>
       </c>
       <c r="K7">
-        <v>0.4175412491338228</v>
+        <v>0.3687775059811678</v>
       </c>
       <c r="L7">
-        <v>0.07038170099706775</v>
+        <v>0.2007619099925222</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.08906078547539309</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.0695607462839547</v>
       </c>
       <c r="O7">
-        <v>0.5240340661449068</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8211257883763441</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5222987763191469</v>
+      </c>
+      <c r="R7">
+        <v>0.8098989219950283</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.119990269928735</v>
+        <v>2.001248663155536</v>
       </c>
       <c r="C8">
-        <v>0.690848648039065</v>
+        <v>0.7405204469897626</v>
       </c>
       <c r="D8">
-        <v>0.06619325511172747</v>
+        <v>0.07423135779993828</v>
       </c>
       <c r="E8">
-        <v>0.06162645673082423</v>
+        <v>0.06382212472812299</v>
       </c>
       <c r="F8">
-        <v>1.106630079113756</v>
+        <v>1.021205253839511</v>
       </c>
       <c r="G8">
-        <v>0.849587039698946</v>
+        <v>0.7587164725050854</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001032900460302244</v>
+        <v>0.001309682730285644</v>
       </c>
       <c r="J8">
-        <v>0.5637674709954155</v>
+        <v>0.5386676024093191</v>
       </c>
       <c r="K8">
-        <v>0.4320491692869695</v>
+        <v>0.374552447993473</v>
       </c>
       <c r="L8">
-        <v>0.07342231574784819</v>
+        <v>0.1962144844094382</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.09648652788416356</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.07237802203313848</v>
       </c>
       <c r="O8">
-        <v>0.6300444190624859</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.775897385490385</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6266669436145946</v>
+      </c>
+      <c r="R8">
+        <v>0.7745745978932206</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.851971858969705</v>
+        <v>2.669715267454308</v>
       </c>
       <c r="C9">
-        <v>0.9343511509020743</v>
+        <v>1.010171933080329</v>
       </c>
       <c r="D9">
-        <v>0.07939499838806086</v>
+        <v>0.09036360527418452</v>
       </c>
       <c r="E9">
-        <v>0.07022603697427598</v>
+        <v>0.07307541126294126</v>
       </c>
       <c r="F9">
-        <v>1.309602602668988</v>
+        <v>1.192101382258912</v>
       </c>
       <c r="G9">
-        <v>1.031132527498016</v>
+        <v>0.9096788424017177</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004584987138278152</v>
+        <v>0.004365011614978265</v>
       </c>
       <c r="J9">
-        <v>0.6337874575136908</v>
+        <v>0.5960868663033807</v>
       </c>
       <c r="K9">
-        <v>0.4680110695238611</v>
+        <v>0.3938071774081848</v>
       </c>
       <c r="L9">
-        <v>0.08052893304294884</v>
+        <v>0.1894553100007812</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1190928173387391</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.07901233822393294</v>
       </c>
       <c r="O9">
-        <v>0.8411791994792495</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6939808899722202</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8353381492534666</v>
+      </c>
+      <c r="R9">
+        <v>0.7110169639443704</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.389172003800013</v>
+        <v>3.146791055830647</v>
       </c>
       <c r="C10">
-        <v>1.119750094741789</v>
+        <v>1.207093841005303</v>
       </c>
       <c r="D10">
-        <v>0.0897906684270211</v>
+        <v>0.1042933802249522</v>
       </c>
       <c r="E10">
-        <v>0.07717057536018856</v>
+        <v>0.08095780091870353</v>
       </c>
       <c r="F10">
-        <v>1.466805016495883</v>
+        <v>1.312705894425278</v>
       </c>
       <c r="G10">
-        <v>1.170766221112842</v>
+        <v>1.049001755564774</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.009655781384960704</v>
+        <v>0.008463282604934008</v>
       </c>
       <c r="J10">
-        <v>0.6888301640195778</v>
+        <v>0.5998226266659117</v>
       </c>
       <c r="K10">
-        <v>0.4966265408571431</v>
+        <v>0.4050327271261622</v>
       </c>
       <c r="L10">
-        <v>0.08650759090554061</v>
+        <v>0.1826626861016081</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1379129986757484</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.08464687298991436</v>
       </c>
       <c r="O10">
-        <v>0.9989123091452328</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.638861712591364</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9881522568914178</v>
+      </c>
+      <c r="R10">
+        <v>0.6716338343512689</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.626696099562707</v>
+        <v>3.338373519347385</v>
       </c>
       <c r="C11">
-        <v>1.209302063777272</v>
+        <v>1.287316253146969</v>
       </c>
       <c r="D11">
-        <v>0.09508212072329769</v>
+        <v>0.113452829584034</v>
       </c>
       <c r="E11">
-        <v>0.08059164167779898</v>
+        <v>0.08554903303416239</v>
       </c>
       <c r="F11">
-        <v>1.536049481186666</v>
+        <v>1.346191153131869</v>
       </c>
       <c r="G11">
-        <v>1.231368988072887</v>
+        <v>1.151088288710582</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01287932245207202</v>
+        <v>0.01107319255784134</v>
       </c>
       <c r="J11">
-        <v>0.7124922879420694</v>
+        <v>0.5355698406613527</v>
       </c>
       <c r="K11">
-        <v>0.5074107025060428</v>
+        <v>0.4010704777515599</v>
       </c>
       <c r="L11">
-        <v>0.08936558763236491</v>
+        <v>0.1763188370092301</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.143417758923345</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08738373281641287</v>
       </c>
       <c r="O11">
-        <v>1.071253651495923</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6156309411838734</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.053588044360509</v>
+      </c>
+      <c r="R11">
+        <v>0.6600263577011489</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.720817968838105</v>
+        <v>3.412308992556348</v>
       </c>
       <c r="C12">
-        <v>1.241508772679879</v>
+        <v>1.314049518455136</v>
       </c>
       <c r="D12">
-        <v>0.09688467095793385</v>
+        <v>0.1170149505871478</v>
       </c>
       <c r="E12">
-        <v>0.08185025502674037</v>
+        <v>0.08735078713854705</v>
       </c>
       <c r="F12">
-        <v>1.565212302485449</v>
+        <v>1.359061845248746</v>
       </c>
       <c r="G12">
-        <v>1.257314247623952</v>
+        <v>1.198368137736651</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01403387101271125</v>
+        <v>0.0119052384564986</v>
       </c>
       <c r="J12">
-        <v>0.7229645580374893</v>
+        <v>0.5062714675298849</v>
       </c>
       <c r="K12">
-        <v>0.5132412317666635</v>
+        <v>0.4001395414031705</v>
       </c>
       <c r="L12">
-        <v>0.09050952893341702</v>
+        <v>0.174143886349956</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1457891246477807</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.08848476137347916</v>
       </c>
       <c r="O12">
-        <v>1.098871653471782</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6066790592622766</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.077963380870266</v>
+      </c>
+      <c r="R12">
+        <v>0.6557843415493423</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.701354689697382</v>
+        <v>3.39725107647746</v>
       </c>
       <c r="C13">
-        <v>1.234166226536956</v>
+        <v>1.307966713900385</v>
       </c>
       <c r="D13">
-        <v>0.09645043362638006</v>
+        <v>0.1161838291635746</v>
       </c>
       <c r="E13">
-        <v>0.08156602560009674</v>
+        <v>0.08694474855931489</v>
       </c>
       <c r="F13">
-        <v>1.559424689280249</v>
+        <v>1.356847745812772</v>
       </c>
       <c r="G13">
-        <v>1.252246560433775</v>
+        <v>1.188402985792266</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01374573187397221</v>
+        <v>0.01167813486874891</v>
       </c>
       <c r="J13">
-        <v>0.7209692167407411</v>
+        <v>0.5130208863600672</v>
       </c>
       <c r="K13">
-        <v>0.5123050183518671</v>
+        <v>0.4006455371105062</v>
       </c>
       <c r="L13">
-        <v>0.09026797415842225</v>
+        <v>0.1747161941150601</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1454025049295566</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08825195350209469</v>
       </c>
       <c r="O13">
-        <v>1.092937381339503</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6085279253523055</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.072754780682239</v>
+      </c>
+      <c r="R13">
+        <v>0.6565204859014102</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.634782024362607</v>
+        <v>3.344826466340692</v>
       </c>
       <c r="C14">
-        <v>1.211778964666848</v>
+        <v>1.289378906372292</v>
       </c>
       <c r="D14">
-        <v>0.09521084356953224</v>
+        <v>0.1137184766340482</v>
       </c>
       <c r="E14">
-        <v>0.08068957184451975</v>
+        <v>0.0856895011929808</v>
       </c>
       <c r="F14">
-        <v>1.538657642661079</v>
+        <v>1.347489879906945</v>
       </c>
       <c r="G14">
-        <v>1.233723939362022</v>
+        <v>1.155062878598471</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01295705736036723</v>
+        <v>0.01112083574317957</v>
       </c>
       <c r="J14">
-        <v>0.7134640699497936</v>
+        <v>0.5333586485158577</v>
       </c>
       <c r="K14">
-        <v>0.5080258946102489</v>
+        <v>0.4011251338481259</v>
       </c>
       <c r="L14">
-        <v>0.08946171217588272</v>
+        <v>0.1761848554468308</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1436657568325792</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08747611291467905</v>
       </c>
       <c r="O14">
-        <v>1.07353146797545</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6148609326115988</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.055611358883759</v>
+      </c>
+      <c r="R14">
+        <v>0.6596024735573565</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.592424812109073</v>
+        <v>3.310909474415382</v>
       </c>
       <c r="C15">
-        <v>1.198876187008182</v>
+        <v>1.278566552777249</v>
       </c>
       <c r="D15">
-        <v>0.09454313119462654</v>
+        <v>0.1123475675632051</v>
       </c>
       <c r="E15">
-        <v>0.08017962643261711</v>
+        <v>0.08496123515665488</v>
       </c>
       <c r="F15">
-        <v>1.524984812317328</v>
+        <v>1.34056405362503</v>
       </c>
       <c r="G15">
-        <v>1.221370329298765</v>
+        <v>1.134487940241968</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01256073550481762</v>
+        <v>0.01088153458607355</v>
       </c>
       <c r="J15">
-        <v>0.7083631795103145</v>
+        <v>0.5446577394590975</v>
       </c>
       <c r="K15">
-        <v>0.5047821190313755</v>
+        <v>0.4007783830837539</v>
       </c>
       <c r="L15">
-        <v>0.08895968726361758</v>
+        <v>0.1768643806815184</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1423471866219224</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08699387651706303</v>
       </c>
       <c r="O15">
-        <v>1.06162357970959</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6189014022983841</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.045008921471045</v>
+      </c>
+      <c r="R15">
+        <v>0.6618623555668961</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.360229886524678</v>
+        <v>3.121384180708617</v>
       </c>
       <c r="C16">
-        <v>1.120456680075051</v>
+        <v>1.208305969195578</v>
       </c>
       <c r="D16">
-        <v>0.09019320018264665</v>
+        <v>0.1045276189093158</v>
       </c>
       <c r="E16">
-        <v>0.07715071204685131</v>
+        <v>0.080876097765465</v>
       </c>
       <c r="F16">
-        <v>1.453863530079488</v>
+        <v>1.302479859357618</v>
       </c>
       <c r="G16">
-        <v>1.157983629790266</v>
+        <v>1.034951514591341</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01003423302730155</v>
+        <v>0.009038463284545273</v>
       </c>
       <c r="J16">
-        <v>0.6828627094858746</v>
+        <v>0.5992290925565698</v>
       </c>
       <c r="K16">
-        <v>0.4905426165477635</v>
+        <v>0.4006042804414989</v>
       </c>
       <c r="L16">
-        <v>0.08622175845714963</v>
+        <v>0.18140628738497</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1356829398470438</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08437422343811107</v>
       </c>
       <c r="O16">
-        <v>0.9938831789458149</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6415132362920559</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.9835088680553881</v>
+      </c>
+      <c r="R16">
+        <v>0.6745851077172134</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.218079857159239</v>
+        <v>3.001150848663542</v>
       </c>
       <c r="C17">
-        <v>1.072729498902788</v>
+        <v>1.162371005556849</v>
       </c>
       <c r="D17">
-        <v>0.08755874263695773</v>
+        <v>0.10026583942728</v>
       </c>
       <c r="E17">
-        <v>0.07533103129928165</v>
+        <v>0.07857398880276989</v>
       </c>
       <c r="F17">
-        <v>1.410946790941281</v>
+        <v>1.275520442655917</v>
       </c>
       <c r="G17">
-        <v>1.119703310844642</v>
+        <v>0.9838322264928365</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.008655989723369117</v>
+        <v>0.00801017194623288</v>
       </c>
       <c r="J17">
-        <v>0.6675417039402589</v>
+        <v>0.6200591699334979</v>
       </c>
       <c r="K17">
-        <v>0.4820492771975751</v>
+        <v>0.3991313064766757</v>
       </c>
       <c r="L17">
-        <v>0.08459462033366805</v>
+        <v>0.1837124923113294</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1311848875964579</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.08282667214899675</v>
       </c>
       <c r="O17">
-        <v>0.9525387933930674</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6556804273964545</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.9449498118723341</v>
+      </c>
+      <c r="R17">
+        <v>0.6836015228485763</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.140460453372555</v>
+        <v>2.934402161381115</v>
       </c>
       <c r="C18">
-        <v>1.043433415644728</v>
+        <v>1.132925845303134</v>
       </c>
       <c r="D18">
-        <v>0.08582948551475056</v>
+        <v>0.09776073773171845</v>
       </c>
       <c r="E18">
-        <v>0.07423720664983691</v>
+        <v>0.07725952813495596</v>
       </c>
       <c r="F18">
-        <v>1.38906742715578</v>
+        <v>1.26110616863069</v>
       </c>
       <c r="G18">
-        <v>1.10056999401283</v>
+        <v>0.9602229845482384</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.00770749242989055</v>
+        <v>0.007184117213781427</v>
       </c>
       <c r="J18">
-        <v>0.6601844119808504</v>
+        <v>0.6283032021767951</v>
       </c>
       <c r="K18">
-        <v>0.4788759902078397</v>
+        <v>0.3991963035411672</v>
       </c>
       <c r="L18">
-        <v>0.08370846113448493</v>
+        <v>0.1853715354586818</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1290092705923378</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08198728367201369</v>
       </c>
       <c r="O18">
-        <v>0.9289254332460857</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6636053671547657</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.9225711100102529</v>
+      </c>
+      <c r="R18">
+        <v>0.6885887930473871</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.111073616547742</v>
+        <v>2.908641812124756</v>
       </c>
       <c r="C19">
-        <v>1.035059091351457</v>
+        <v>1.124354855980926</v>
       </c>
       <c r="D19">
-        <v>0.08542033584245701</v>
+        <v>0.09712584048094186</v>
       </c>
       <c r="E19">
-        <v>0.07391600431720491</v>
+        <v>0.07687321279790638</v>
       </c>
       <c r="F19">
-        <v>1.379728801916784</v>
+        <v>1.254197204328463</v>
       </c>
       <c r="G19">
-        <v>1.092063358432142</v>
+        <v>0.9508991665207986</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.007559338165177287</v>
+        <v>0.007115974976016126</v>
       </c>
       <c r="J19">
-        <v>0.656676911436719</v>
+        <v>0.6292823901175382</v>
       </c>
       <c r="K19">
-        <v>0.4765601873411853</v>
+        <v>0.3980594320772894</v>
       </c>
       <c r="L19">
-        <v>0.08338742599043059</v>
+        <v>0.1855072952977714</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1278297244374258</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08168355557602069</v>
       </c>
       <c r="O19">
-        <v>0.9208695105789033</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6665603747989621</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.91487684713357</v>
+      </c>
+      <c r="R19">
+        <v>0.6908070354653049</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.233519823584857</v>
+        <v>3.014393375187012</v>
       </c>
       <c r="C20">
-        <v>1.077641236401121</v>
+        <v>1.167205752722737</v>
       </c>
       <c r="D20">
-        <v>0.08782016913778534</v>
+        <v>0.100681560488205</v>
       </c>
       <c r="E20">
-        <v>0.07551855009094766</v>
+        <v>0.0788068586362769</v>
       </c>
       <c r="F20">
-        <v>1.415690032917951</v>
+        <v>1.278707126981942</v>
       </c>
       <c r="G20">
-        <v>1.123966307760213</v>
+        <v>0.9891123912844648</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.008779320116095057</v>
+        <v>0.00809423740368409</v>
       </c>
       <c r="J20">
-        <v>0.6692661905170212</v>
+        <v>0.6184459495524095</v>
       </c>
       <c r="K20">
-        <v>0.4830722410662389</v>
+        <v>0.3994479098950947</v>
       </c>
       <c r="L20">
-        <v>0.08476835285412676</v>
+        <v>0.1835252150041384</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1317210734935692</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.08299157088671194</v>
       </c>
       <c r="O20">
-        <v>0.9569398025579332</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6541349263851188</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9490919109081091</v>
+      </c>
+      <c r="R20">
+        <v>0.682550815433558</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.649766406098763</v>
+        <v>3.349648198669968</v>
       </c>
       <c r="C21">
-        <v>1.220561749245007</v>
+        <v>1.291967367486848</v>
       </c>
       <c r="D21">
-        <v>0.09582705605734532</v>
+        <v>0.1154856373693178</v>
       </c>
       <c r="E21">
-        <v>0.08101427527613581</v>
+        <v>0.08638296284826907</v>
       </c>
       <c r="F21">
-        <v>1.541877865245283</v>
+        <v>1.341071418990282</v>
       </c>
       <c r="G21">
-        <v>1.236152460260769</v>
+        <v>1.176673520132624</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01339521935639443</v>
+        <v>0.01151807300105734</v>
       </c>
       <c r="J21">
-        <v>0.7141594833512386</v>
+        <v>0.5049880135315874</v>
       </c>
       <c r="K21">
-        <v>0.5074558249412959</v>
+        <v>0.397032733703</v>
       </c>
       <c r="L21">
-        <v>0.08966277096650543</v>
+        <v>0.1743869903585562</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1425410715993181</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.08768372606638053</v>
       </c>
       <c r="O21">
-        <v>1.079117497659468</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6133947753507165</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.058972764247223</v>
+      </c>
+      <c r="R21">
+        <v>0.6608193421805524</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.928721526600725</v>
+        <v>3.570996393469898</v>
       </c>
       <c r="C22">
-        <v>1.312525114864684</v>
+        <v>1.369480407543506</v>
       </c>
       <c r="D22">
-        <v>0.1008563925942809</v>
+        <v>0.1254584440289221</v>
       </c>
       <c r="E22">
-        <v>0.08465284736914569</v>
+        <v>0.0915424158123983</v>
       </c>
       <c r="F22">
-        <v>1.630499515502791</v>
+        <v>1.383735456699483</v>
       </c>
       <c r="G22">
-        <v>1.315423831337</v>
+        <v>1.31504560125893</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01673959946479098</v>
+        <v>0.01381164424309134</v>
       </c>
       <c r="J22">
-        <v>0.746537856354081</v>
+        <v>0.4335720080202066</v>
       </c>
       <c r="K22">
-        <v>0.5265532715574253</v>
+        <v>0.396817391128387</v>
       </c>
       <c r="L22">
-        <v>0.09308808221125275</v>
+        <v>0.1689787401111715</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1505706025847502</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.09097740742996763</v>
       </c>
       <c r="O22">
-        <v>1.159871988055087</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5872679899480637</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.130650516209975</v>
+      </c>
+      <c r="R22">
+        <v>0.6479292273055179</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.785235457024385</v>
+        <v>3.462703705743934</v>
       </c>
       <c r="C23">
-        <v>1.260637956560061</v>
+        <v>1.32908475313684</v>
       </c>
       <c r="D23">
-        <v>0.09785647160028788</v>
+        <v>0.119197370613449</v>
       </c>
       <c r="E23">
-        <v>0.08261625175872922</v>
+        <v>0.08849603199543665</v>
       </c>
       <c r="F23">
-        <v>1.586417281189725</v>
+        <v>1.36879090778352</v>
       </c>
       <c r="G23">
-        <v>1.276529840594463</v>
+        <v>1.233005674877774</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01466349029891489</v>
+        <v>0.01226944389722107</v>
       </c>
       <c r="J23">
-        <v>0.7309621647920608</v>
+        <v>0.4867926030573102</v>
       </c>
       <c r="K23">
-        <v>0.5184794458593629</v>
+        <v>0.4004929149251737</v>
       </c>
       <c r="L23">
-        <v>0.09128444794908575</v>
+        <v>0.1730714194889345</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1477356666976029</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.08923199005632654</v>
       </c>
       <c r="O23">
-        <v>1.116829902862285</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6006337481429043</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.093642583007245</v>
+      </c>
+      <c r="R23">
+        <v>0.6526488453543138</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.235120994330032</v>
+        <v>3.01645365753626</v>
       </c>
       <c r="C24">
-        <v>1.071240418358514</v>
+        <v>1.160733470905939</v>
       </c>
       <c r="D24">
-        <v>0.08722397743152754</v>
+        <v>0.09999006805033872</v>
       </c>
       <c r="E24">
-        <v>0.0753051709748469</v>
+        <v>0.07857228862401655</v>
       </c>
       <c r="F24">
-        <v>1.418962601460677</v>
+        <v>1.282252094320214</v>
       </c>
       <c r="G24">
-        <v>1.127708093273199</v>
+        <v>0.9919006673180633</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.008309465932280879</v>
+        <v>0.007531687384178198</v>
       </c>
       <c r="J24">
-        <v>0.6713301481032943</v>
+        <v>0.6217480015721435</v>
       </c>
       <c r="K24">
-        <v>0.4860600960834844</v>
+        <v>0.4022575397392671</v>
       </c>
       <c r="L24">
-        <v>0.08475588327197414</v>
+        <v>0.1846823227855374</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1326434184066372</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.08298011400137284</v>
       </c>
       <c r="O24">
-        <v>0.955151133360701</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6541335486080939</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.9474105496063601</v>
+      </c>
+      <c r="R24">
+        <v>0.6817321212198024</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.645543464899674</v>
+        <v>2.483951926613713</v>
       </c>
       <c r="C25">
-        <v>0.8716660563219421</v>
+        <v>0.9423884549295565</v>
       </c>
       <c r="D25">
-        <v>0.07619064778573659</v>
+        <v>0.086071847179511</v>
       </c>
       <c r="E25">
-        <v>0.06792644688614402</v>
+        <v>0.07049289548705318</v>
       </c>
       <c r="F25">
-        <v>1.247922080077657</v>
+        <v>1.142476796330655</v>
       </c>
       <c r="G25">
-        <v>0.9753008198433122</v>
+        <v>0.8572543966400872</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.003600692312724973</v>
+        <v>0.003704425131901168</v>
       </c>
       <c r="J25">
-        <v>0.6113820934607475</v>
+        <v>0.5875154283397563</v>
       </c>
       <c r="K25">
-        <v>0.4544237944715945</v>
+        <v>0.3863770723928397</v>
       </c>
       <c r="L25">
-        <v>0.07841492683270701</v>
+        <v>0.1905578670286836</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1115691236298808</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.07702654980255019</v>
       </c>
       <c r="O25">
-        <v>0.7834694460249239</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7158933525424089</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7789971534807592</v>
+      </c>
+      <c r="R25">
+        <v>0.7280542384451003</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
